--- a/Docs/קובץ רג'קטים הסבות 2.xlsx
+++ b/Docs/קובץ רג'קטים הסבות 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\hanna\Documents\work\HolisticCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\hanna\Documents\work\holisticcrm-data-migration\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7E4C63-6278-427D-8093-72C8E8F65E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA434C3-7292-4756-8F4A-7904D13ECE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +414,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +447,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,16 +462,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,7 +790,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,46 +836,46 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -914,239 +929,239 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1161,14 +1176,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1208,78 +1223,78 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="28" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="4" t="s">
         <v>100</v>
       </c>
     </row>
